--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3723145</v>
+        <v>9.535973</v>
       </c>
       <c r="H2">
-        <v>6.744629</v>
+        <v>19.071946</v>
       </c>
       <c r="I2">
-        <v>0.01213545498976471</v>
+        <v>0.0317671705081171</v>
       </c>
       <c r="J2">
-        <v>0.008433128867785357</v>
+        <v>0.02234773320606713</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N2">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O2">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P2">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q2">
-        <v>56.2364636784125</v>
+        <v>336.270839824173</v>
       </c>
       <c r="R2">
-        <v>224.94585471365</v>
+        <v>1345.083359296692</v>
       </c>
       <c r="S2">
-        <v>0.0002952560380478883</v>
+        <v>0.001420760069591094</v>
       </c>
       <c r="T2">
-        <v>0.0001495212240493664</v>
+        <v>0.0007297857671528761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3723145</v>
+        <v>9.535973</v>
       </c>
       <c r="H3">
-        <v>6.744629</v>
+        <v>19.071946</v>
       </c>
       <c r="I3">
-        <v>0.01213545498976471</v>
+        <v>0.0317671705081171</v>
       </c>
       <c r="J3">
-        <v>0.008433128867785357</v>
+        <v>0.02234773320606713</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N3">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O3">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P3">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q3">
-        <v>587.0989898948584</v>
+        <v>1660.153617334517</v>
       </c>
       <c r="R3">
-        <v>3522.593939369151</v>
+        <v>9960.9217040071</v>
       </c>
       <c r="S3">
-        <v>0.003082422157437593</v>
+        <v>0.007014226895586262</v>
       </c>
       <c r="T3">
-        <v>0.002341463719408536</v>
+        <v>0.005404377979301965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.3723145</v>
+        <v>9.535973</v>
       </c>
       <c r="H4">
-        <v>6.744629</v>
+        <v>19.071946</v>
       </c>
       <c r="I4">
-        <v>0.01213545498976471</v>
+        <v>0.0317671705081171</v>
       </c>
       <c r="J4">
-        <v>0.008433128867785357</v>
+        <v>0.02234773320606713</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N4">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O4">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P4">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q4">
-        <v>523.2031838868368</v>
+        <v>614.542480538342</v>
       </c>
       <c r="R4">
-        <v>3139.219103321021</v>
+        <v>3687.254883230052</v>
       </c>
       <c r="S4">
-        <v>0.002746952583147009</v>
+        <v>0.002596470802740041</v>
       </c>
       <c r="T4">
-        <v>0.0020866349525988</v>
+        <v>0.002000549716898762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.3723145</v>
+        <v>9.535973</v>
       </c>
       <c r="H5">
-        <v>6.744629</v>
+        <v>19.071946</v>
       </c>
       <c r="I5">
-        <v>0.01213545498976471</v>
+        <v>0.0317671705081171</v>
       </c>
       <c r="J5">
-        <v>0.008433128867785357</v>
+        <v>0.02234773320606713</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N5">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O5">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P5">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q5">
-        <v>534.3939841720678</v>
+        <v>1625.26309576031</v>
       </c>
       <c r="R5">
-        <v>2137.575936688271</v>
+        <v>6501.052383041238</v>
       </c>
       <c r="S5">
-        <v>0.002805707190721505</v>
+        <v>0.006866812805545747</v>
       </c>
       <c r="T5">
-        <v>0.001420844011368692</v>
+        <v>0.003527198123348645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.3723145</v>
+        <v>9.535973</v>
       </c>
       <c r="H6">
-        <v>6.744629</v>
+        <v>19.071946</v>
       </c>
       <c r="I6">
-        <v>0.01213545498976471</v>
+        <v>0.0317671705081171</v>
       </c>
       <c r="J6">
-        <v>0.008433128867785357</v>
+        <v>0.02234773320606713</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N6">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O6">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P6">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q6">
-        <v>49.603488639193</v>
+        <v>1743.863392160012</v>
       </c>
       <c r="R6">
-        <v>297.620931835158</v>
+        <v>10463.18035296007</v>
       </c>
       <c r="S6">
-        <v>0.0002604311966113834</v>
+        <v>0.007367904620270065</v>
       </c>
       <c r="T6">
-        <v>0.0001978282555477806</v>
+        <v>0.005676882438525195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.3723145</v>
+        <v>9.535973</v>
       </c>
       <c r="H7">
-        <v>6.744629</v>
+        <v>19.071946</v>
       </c>
       <c r="I7">
-        <v>0.01213545498976471</v>
+        <v>0.0317671705081171</v>
       </c>
       <c r="J7">
-        <v>0.008433128867785357</v>
+        <v>0.02234773320606713</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N7">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O7">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P7">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q7">
-        <v>560.8647954138306</v>
+        <v>1538.680035320856</v>
       </c>
       <c r="R7">
-        <v>3365.188772482984</v>
+        <v>9232.080211925133</v>
       </c>
       <c r="S7">
-        <v>0.002944685823799327</v>
+        <v>0.006500995314383893</v>
       </c>
       <c r="T7">
-        <v>0.002236836704812182</v>
+        <v>0.00500893918083969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>689.637672</v>
       </c>
       <c r="I8">
-        <v>0.8272327435457276</v>
+        <v>0.7657962648469795</v>
       </c>
       <c r="J8">
-        <v>0.8622866224451322</v>
+        <v>0.808089468306445</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N8">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O8">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P8">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q8">
-        <v>3833.4486984822</v>
+        <v>8106.323257480824</v>
       </c>
       <c r="R8">
-        <v>23000.6921908932</v>
+        <v>48637.93954488495</v>
       </c>
       <c r="S8">
-        <v>0.0201266011541222</v>
+        <v>0.03424959595499973</v>
       </c>
       <c r="T8">
-        <v>0.01528853089888198</v>
+        <v>0.02638890428475644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>689.637672</v>
       </c>
       <c r="I9">
-        <v>0.8272327435457276</v>
+        <v>0.7657962648469795</v>
       </c>
       <c r="J9">
-        <v>0.8622866224451322</v>
+        <v>0.808089468306445</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N9">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O9">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P9">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q9">
-        <v>40020.54381589081</v>
+        <v>40020.5438158908</v>
       </c>
       <c r="R9">
-        <v>360184.8943430173</v>
+        <v>360184.8943430171</v>
       </c>
       <c r="S9">
-        <v>0.2101182477471066</v>
+        <v>0.169088674613204</v>
       </c>
       <c r="T9">
-        <v>0.2394144419990135</v>
+        <v>0.1954212039114347</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>689.637672</v>
       </c>
       <c r="I10">
-        <v>0.8272327435457276</v>
+        <v>0.7657962648469795</v>
       </c>
       <c r="J10">
-        <v>0.8622866224451322</v>
+        <v>0.808089468306445</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N10">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O10">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P10">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q10">
-        <v>35664.98376893239</v>
+        <v>14814.4870524685</v>
       </c>
       <c r="R10">
-        <v>320984.8539203915</v>
+        <v>133330.3834722165</v>
       </c>
       <c r="S10">
-        <v>0.1872504264292758</v>
+        <v>0.06259190260632426</v>
       </c>
       <c r="T10">
-        <v>0.2133582248962941</v>
+        <v>0.0723394691596925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>689.637672</v>
       </c>
       <c r="I11">
-        <v>0.8272327435457276</v>
+        <v>0.7657962648469795</v>
       </c>
       <c r="J11">
-        <v>0.8622866224451322</v>
+        <v>0.808089468306445</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N11">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O11">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P11">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q11">
-        <v>36427.82261018159</v>
+        <v>39179.45439329764</v>
       </c>
       <c r="R11">
-        <v>218566.9356610895</v>
+        <v>235076.7263597858</v>
       </c>
       <c r="S11">
-        <v>0.1912555284432337</v>
+        <v>0.1655350323550748</v>
       </c>
       <c r="T11">
-        <v>0.1452811646534518</v>
+        <v>0.1275427637257849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>689.637672</v>
       </c>
       <c r="I12">
-        <v>0.8272327435457276</v>
+        <v>0.7657962648469795</v>
       </c>
       <c r="J12">
-        <v>0.8622866224451322</v>
+        <v>0.808089468306445</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N12">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O12">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P12">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q12">
-        <v>3381.301321709616</v>
+        <v>42038.49605611836</v>
       </c>
       <c r="R12">
-        <v>30431.71189538654</v>
+        <v>378346.4645050652</v>
       </c>
       <c r="S12">
-        <v>0.01775271001041458</v>
+        <v>0.1776146174715152</v>
       </c>
       <c r="T12">
-        <v>0.02022792026244772</v>
+        <v>0.205274909499125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>689.637672</v>
       </c>
       <c r="I13">
-        <v>0.8272327435457276</v>
+        <v>0.7657962648469795</v>
       </c>
       <c r="J13">
-        <v>0.8622866224451322</v>
+        <v>0.808089468306445</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N13">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O13">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P13">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q13">
-        <v>38232.24789344236</v>
+        <v>37092.23720577343</v>
       </c>
       <c r="R13">
-        <v>344090.2310409812</v>
+        <v>333830.1348519609</v>
       </c>
       <c r="S13">
-        <v>0.2007292297615748</v>
+        <v>0.1567164418458615</v>
       </c>
       <c r="T13">
-        <v>0.2287163397350432</v>
+        <v>0.1811222177256516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.570674</v>
+        <v>10.68702366666667</v>
       </c>
       <c r="H14">
-        <v>22.712022</v>
+        <v>32.061071</v>
       </c>
       <c r="I14">
-        <v>0.02724347731185272</v>
+        <v>0.0356016636208264</v>
       </c>
       <c r="J14">
-        <v>0.02839791608611477</v>
+        <v>0.03756786334277456</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N14">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O14">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P14">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q14">
-        <v>126.24799182345</v>
+        <v>376.860801054157</v>
       </c>
       <c r="R14">
-        <v>757.4879509407</v>
+        <v>2261.164806324942</v>
       </c>
       <c r="S14">
-        <v>0.0006628347417158627</v>
+        <v>0.00159225455948491</v>
       </c>
       <c r="T14">
-        <v>0.0005035012793255404</v>
+        <v>0.001226813105253015</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.570674</v>
+        <v>10.68702366666667</v>
       </c>
       <c r="H15">
-        <v>22.712022</v>
+        <v>32.061071</v>
       </c>
       <c r="I15">
-        <v>0.02724347731185272</v>
+        <v>0.0356016636208264</v>
       </c>
       <c r="J15">
-        <v>0.02839791608611477</v>
+        <v>0.03756786334277456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N15">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O15">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P15">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q15">
-        <v>1318.0072790433</v>
+        <v>1860.544382702872</v>
       </c>
       <c r="R15">
-        <v>11862.0655113897</v>
+        <v>16744.89944432585</v>
       </c>
       <c r="S15">
-        <v>0.00691988048099805</v>
+        <v>0.007860887277732459</v>
       </c>
       <c r="T15">
-        <v>0.007884699885999441</v>
+        <v>0.009085079524933471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.570674</v>
+        <v>10.68702366666667</v>
       </c>
       <c r="H16">
-        <v>22.712022</v>
+        <v>32.061071</v>
       </c>
       <c r="I16">
-        <v>0.02724347731185272</v>
+        <v>0.0356016636208264</v>
       </c>
       <c r="J16">
-        <v>0.02839791608611477</v>
+        <v>0.03756786334277456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N16">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O16">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P16">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q16">
-        <v>1174.564454462742</v>
+        <v>688.7215424881447</v>
       </c>
       <c r="R16">
-        <v>10571.08009016468</v>
+        <v>6198.493882393303</v>
       </c>
       <c r="S16">
-        <v>0.006166768402076349</v>
+        <v>0.002909880818527047</v>
       </c>
       <c r="T16">
-        <v>0.007026583515474745</v>
+        <v>0.003363042581628591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.570674</v>
+        <v>10.68702366666667</v>
       </c>
       <c r="H17">
-        <v>22.712022</v>
+        <v>32.061071</v>
       </c>
       <c r="I17">
-        <v>0.02724347731185272</v>
+        <v>0.0356016636208264</v>
       </c>
       <c r="J17">
-        <v>0.02839791608611477</v>
+        <v>0.03756786334277456</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N17">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O17">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P17">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q17">
-        <v>1199.687230158363</v>
+        <v>1821.442360307686</v>
       </c>
       <c r="R17">
-        <v>7198.123380950179</v>
+        <v>10928.65416184611</v>
       </c>
       <c r="S17">
-        <v>0.006298669498473033</v>
+        <v>0.007695679399201018</v>
       </c>
       <c r="T17">
-        <v>0.004784583472978866</v>
+        <v>0.005929428987673711</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.570674</v>
+        <v>10.68702366666667</v>
       </c>
       <c r="H18">
-        <v>22.712022</v>
+        <v>32.061071</v>
       </c>
       <c r="I18">
-        <v>0.02724347731185272</v>
+        <v>0.0356016636208264</v>
       </c>
       <c r="J18">
-        <v>0.02839791608611477</v>
+        <v>0.03756786334277456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N18">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O18">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P18">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q18">
-        <v>111.357301268916</v>
+        <v>1954.358442861327</v>
       </c>
       <c r="R18">
-        <v>1002.215711420244</v>
+        <v>17589.22598575195</v>
       </c>
       <c r="S18">
-        <v>0.0005846547494234859</v>
+        <v>0.00825725608184596</v>
       </c>
       <c r="T18">
-        <v>0.0006661715110234849</v>
+        <v>0.009543175663364893</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.570674</v>
+        <v>10.68702366666667</v>
       </c>
       <c r="H19">
-        <v>22.712022</v>
+        <v>32.061071</v>
       </c>
       <c r="I19">
-        <v>0.02724347731185272</v>
+        <v>0.0356016636208264</v>
       </c>
       <c r="J19">
-        <v>0.02839791608611477</v>
+        <v>0.03756786334277456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N19">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O19">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P19">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q19">
-        <v>1259.112850878768</v>
+        <v>1724.408191267057</v>
       </c>
       <c r="R19">
-        <v>11332.01565790891</v>
+        <v>15519.67372140351</v>
       </c>
       <c r="S19">
-        <v>0.006610669439165935</v>
+        <v>0.007285705484035008</v>
       </c>
       <c r="T19">
-        <v>0.007532376421312691</v>
+        <v>0.008420323479920881</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.5181635</v>
+        <v>37.5963525</v>
       </c>
       <c r="H20">
-        <v>61.036327</v>
+        <v>75.192705</v>
       </c>
       <c r="I20">
-        <v>0.1098212517025118</v>
+        <v>0.1252446646347231</v>
       </c>
       <c r="J20">
-        <v>0.07631660854989754</v>
+        <v>0.0881077636431285</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N20">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O20">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P20">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q20">
-        <v>508.9186056637375</v>
+        <v>1325.775254344853</v>
       </c>
       <c r="R20">
-        <v>2035.67442265495</v>
+        <v>5303.10101737941</v>
       </c>
       <c r="S20">
-        <v>0.002671954837992623</v>
+        <v>0.005601462629379435</v>
       </c>
       <c r="T20">
-        <v>0.001353110204359261</v>
+        <v>0.00287723999966888</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.5181635</v>
+        <v>37.5963525</v>
       </c>
       <c r="H21">
-        <v>61.036327</v>
+        <v>75.192705</v>
       </c>
       <c r="I21">
-        <v>0.1098212517025118</v>
+        <v>0.1252446646347231</v>
       </c>
       <c r="J21">
-        <v>0.07631660854989754</v>
+        <v>0.0881077636431285</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N21">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O21">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P21">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q21">
-        <v>5313.022544100242</v>
+        <v>6545.291246258626</v>
       </c>
       <c r="R21">
-        <v>31878.13526460146</v>
+        <v>39271.74747755175</v>
       </c>
       <c r="S21">
-        <v>0.02789474806596574</v>
+        <v>0.0276541624941096</v>
       </c>
       <c r="T21">
-        <v>0.02118935603966589</v>
+        <v>0.02130720164088912</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.5181635</v>
+        <v>37.5963525</v>
       </c>
       <c r="H22">
-        <v>61.036327</v>
+        <v>75.192705</v>
       </c>
       <c r="I22">
-        <v>0.1098212517025118</v>
+        <v>0.1252446646347231</v>
       </c>
       <c r="J22">
-        <v>0.07631660854989754</v>
+        <v>0.0881077636431285</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N22">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O22">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P22">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q22">
-        <v>4734.789803732437</v>
+        <v>2422.883928524535</v>
       </c>
       <c r="R22">
-        <v>28408.73882239462</v>
+        <v>14537.30357114721</v>
       </c>
       <c r="S22">
-        <v>0.02485887602097247</v>
+        <v>0.01023679823294094</v>
       </c>
       <c r="T22">
-        <v>0.01888325262908455</v>
+        <v>0.007887330674101221</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.5181635</v>
+        <v>37.5963525</v>
       </c>
       <c r="H23">
-        <v>61.036327</v>
+        <v>75.192705</v>
       </c>
       <c r="I23">
-        <v>0.1098212517025118</v>
+        <v>0.1252446646347231</v>
       </c>
       <c r="J23">
-        <v>0.07631660854989754</v>
+        <v>0.0881077636431285</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N23">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O23">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P23">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q23">
-        <v>4836.062289676594</v>
+        <v>6407.732514914404</v>
       </c>
       <c r="R23">
-        <v>19344.24915870637</v>
+        <v>25630.93005965762</v>
       </c>
       <c r="S23">
-        <v>0.02539058287107106</v>
+        <v>0.02707297040258104</v>
       </c>
       <c r="T23">
-        <v>0.01285809785740493</v>
+        <v>0.01390626672105239</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.5181635</v>
+        <v>37.5963525</v>
       </c>
       <c r="H24">
-        <v>61.036327</v>
+        <v>75.192705</v>
       </c>
       <c r="I24">
-        <v>0.1098212517025118</v>
+        <v>0.1252446646347231</v>
       </c>
       <c r="J24">
-        <v>0.07631660854989754</v>
+        <v>0.0881077636431285</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N24">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O24">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P24">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q24">
-        <v>448.892704539059</v>
+        <v>6875.323871354663</v>
       </c>
       <c r="R24">
-        <v>2693.356227234354</v>
+        <v>41251.94322812798</v>
       </c>
       <c r="S24">
-        <v>0.002356803269293787</v>
+        <v>0.02904856581389776</v>
       </c>
       <c r="T24">
-        <v>0.001790270464906803</v>
+        <v>0.02238157273094763</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.5181635</v>
+        <v>37.5963525</v>
       </c>
       <c r="H25">
-        <v>61.036327</v>
+        <v>75.192705</v>
       </c>
       <c r="I25">
-        <v>0.1098212517025118</v>
+        <v>0.1252446646347231</v>
       </c>
       <c r="J25">
-        <v>0.07631660854989754</v>
+        <v>0.0881077636431285</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N25">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O25">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P25">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q25">
-        <v>5075.613062729865</v>
+        <v>6066.371726580533</v>
       </c>
       <c r="R25">
-        <v>30453.67837637919</v>
+        <v>36398.2303594832</v>
       </c>
       <c r="S25">
-        <v>0.02664828663721609</v>
+        <v>0.02563070506181437</v>
       </c>
       <c r="T25">
-        <v>0.02024252135447611</v>
+        <v>0.01974815187646926</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.168296333333334</v>
+        <v>3.472167333333333</v>
       </c>
       <c r="H26">
-        <v>12.504889</v>
+        <v>10.416502</v>
       </c>
       <c r="I26">
-        <v>0.01499983840094628</v>
+        <v>0.01156682508546472</v>
       </c>
       <c r="J26">
-        <v>0.01563545458384021</v>
+        <v>0.01220563479135609</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N26">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O26">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P26">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q26">
-        <v>69.51019703244168</v>
+        <v>122.440429014434</v>
       </c>
       <c r="R26">
-        <v>417.06118219465</v>
+        <v>734.642574086604</v>
       </c>
       <c r="S26">
-        <v>0.0003649465851389425</v>
+        <v>0.0005173165551264238</v>
       </c>
       <c r="T26">
-        <v>0.0002772200383270093</v>
+        <v>0.0003985862220414984</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.168296333333334</v>
+        <v>3.472167333333333</v>
       </c>
       <c r="H27">
-        <v>12.504889</v>
+        <v>10.416502</v>
       </c>
       <c r="I27">
-        <v>0.01499983840094628</v>
+        <v>0.01156682508546472</v>
       </c>
       <c r="J27">
-        <v>0.01563545458384021</v>
+        <v>0.01220563479135609</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N27">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O27">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P27">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q27">
-        <v>725.6744787244613</v>
+        <v>604.482747426411</v>
       </c>
       <c r="R27">
-        <v>6531.070308520152</v>
+        <v>5440.344726837699</v>
       </c>
       <c r="S27">
-        <v>0.003809979459695276</v>
+        <v>0.002553967958533722</v>
       </c>
       <c r="T27">
-        <v>0.004341194142588259</v>
+        <v>0.002951702675235913</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.168296333333334</v>
+        <v>3.472167333333333</v>
       </c>
       <c r="H28">
-        <v>12.504889</v>
+        <v>10.416502</v>
       </c>
       <c r="I28">
-        <v>0.01499983840094628</v>
+        <v>0.01156682508546472</v>
       </c>
       <c r="J28">
-        <v>0.01563545458384021</v>
+        <v>0.01220563479135609</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N28">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O28">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P28">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q28">
-        <v>646.6970719913069</v>
+        <v>223.7626224267693</v>
       </c>
       <c r="R28">
-        <v>5820.273647921762</v>
+        <v>2013.863601840924</v>
       </c>
       <c r="S28">
-        <v>0.003395327565140265</v>
+        <v>0.0009454075743741879</v>
       </c>
       <c r="T28">
-        <v>0.003868728504676575</v>
+        <v>0.001092637852853368</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.168296333333334</v>
+        <v>3.472167333333333</v>
       </c>
       <c r="H29">
-        <v>12.504889</v>
+        <v>10.416502</v>
       </c>
       <c r="I29">
-        <v>0.01499983840094628</v>
+        <v>0.01156682508546472</v>
       </c>
       <c r="J29">
-        <v>0.01563545458384021</v>
+        <v>0.01220563479135609</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N29">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O29">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P29">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q29">
-        <v>660.5292847923354</v>
+        <v>591.778671056551</v>
       </c>
       <c r="R29">
-        <v>3963.175708754012</v>
+        <v>3550.672026339306</v>
       </c>
       <c r="S29">
-        <v>0.003467950274356505</v>
+        <v>0.002500292640041133</v>
       </c>
       <c r="T29">
-        <v>0.002634317862180445</v>
+        <v>0.00192644559219376</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.168296333333334</v>
+        <v>3.472167333333333</v>
       </c>
       <c r="H30">
-        <v>12.504889</v>
+        <v>10.416502</v>
       </c>
       <c r="I30">
-        <v>0.01499983840094628</v>
+        <v>0.01156682508546472</v>
       </c>
       <c r="J30">
-        <v>0.01563545458384021</v>
+        <v>0.01220563479135609</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N30">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O30">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P30">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q30">
-        <v>61.31161248907534</v>
+        <v>634.9625260111211</v>
       </c>
       <c r="R30">
-        <v>551.8045124016782</v>
+        <v>5714.66273410009</v>
       </c>
       <c r="S30">
-        <v>0.0003219018872411935</v>
+        <v>0.002682746452576728</v>
       </c>
       <c r="T30">
-        <v>0.0003667837588529527</v>
+        <v>0.00310053611071794</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.168296333333334</v>
+        <v>3.472167333333333</v>
       </c>
       <c r="H31">
-        <v>12.504889</v>
+        <v>10.416502</v>
       </c>
       <c r="I31">
-        <v>0.01499983840094628</v>
+        <v>0.01156682508546472</v>
       </c>
       <c r="J31">
-        <v>0.01563545458384021</v>
+        <v>0.01220563479135609</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N31">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O31">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P31">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q31">
-        <v>693.2481149724383</v>
+        <v>560.2526931539397</v>
       </c>
       <c r="R31">
-        <v>6239.233034751945</v>
+        <v>5042.274238385457</v>
       </c>
       <c r="S31">
-        <v>0.003639732629374094</v>
+        <v>0.002367093904812525</v>
       </c>
       <c r="T31">
-        <v>0.004147210277214968</v>
+        <v>0.002735726338313614</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.380743666666667</v>
+        <v>9.012525666666667</v>
       </c>
       <c r="H32">
-        <v>7.142231000000001</v>
+        <v>27.037577</v>
       </c>
       <c r="I32">
-        <v>0.008567234049196992</v>
+        <v>0.03002341130388915</v>
       </c>
       <c r="J32">
-        <v>0.008930269467229628</v>
+        <v>0.03168153671022857</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N32">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O32">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P32">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q32">
-        <v>39.70110282955834</v>
+        <v>317.812306606459</v>
       </c>
       <c r="R32">
-        <v>238.20661697735</v>
+        <v>1906.873839638754</v>
       </c>
       <c r="S32">
-        <v>0.0002084410996149981</v>
+        <v>0.001342771901028333</v>
       </c>
       <c r="T32">
-        <v>0.0001583356358909187</v>
+        <v>0.00103458969907423</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.380743666666667</v>
+        <v>9.012525666666667</v>
       </c>
       <c r="H33">
-        <v>7.142231000000001</v>
+        <v>27.037577</v>
       </c>
       <c r="I33">
-        <v>0.008567234049196992</v>
+        <v>0.03002341130388915</v>
       </c>
       <c r="J33">
-        <v>0.008930269467229628</v>
+        <v>0.03168153671022857</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N33">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O33">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P33">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q33">
-        <v>414.4726720768724</v>
+        <v>1569.024690698772</v>
       </c>
       <c r="R33">
-        <v>3730.254048691851</v>
+        <v>14121.22221628895</v>
       </c>
       <c r="S33">
-        <v>0.002176089160519446</v>
+        <v>0.006629202906540826</v>
       </c>
       <c r="T33">
-        <v>0.002479495130441564</v>
+        <v>0.007661582397123047</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.380743666666667</v>
+        <v>9.012525666666667</v>
       </c>
       <c r="H34">
-        <v>7.142231000000001</v>
+        <v>27.037577</v>
       </c>
       <c r="I34">
-        <v>0.008567234049196992</v>
+        <v>0.03002341130388915</v>
       </c>
       <c r="J34">
-        <v>0.008930269467229628</v>
+        <v>0.03168153671022857</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N34">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O34">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P34">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q34">
-        <v>369.3643242403466</v>
+        <v>580.8090982544527</v>
       </c>
       <c r="R34">
-        <v>3324.278918163119</v>
+        <v>5227.281884290075</v>
       </c>
       <c r="S34">
-        <v>0.001939258620440319</v>
+        <v>0.002453945680471749</v>
       </c>
       <c r="T34">
-        <v>0.002209643976582653</v>
+        <v>0.002836103720772829</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.380743666666667</v>
+        <v>9.012525666666667</v>
       </c>
       <c r="H35">
-        <v>7.142231000000001</v>
+        <v>27.037577</v>
       </c>
       <c r="I35">
-        <v>0.008567234049196992</v>
+        <v>0.03002341130388915</v>
       </c>
       <c r="J35">
-        <v>0.008930269467229628</v>
+        <v>0.03168153671022857</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N35">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O35">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P35">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q35">
-        <v>377.2646629851449</v>
+        <v>1536.049374890839</v>
       </c>
       <c r="R35">
-        <v>2263.58797791087</v>
+        <v>9216.296249345032</v>
       </c>
       <c r="S35">
-        <v>0.001980737450445784</v>
+        <v>0.006489880650687286</v>
       </c>
       <c r="T35">
-        <v>0.001504604055191445</v>
+        <v>0.005000375465319297</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.380743666666667</v>
+        <v>9.012525666666667</v>
       </c>
       <c r="H36">
-        <v>7.142231000000001</v>
+        <v>27.037577</v>
       </c>
       <c r="I36">
-        <v>0.008567234049196992</v>
+        <v>0.03002341130388915</v>
       </c>
       <c r="J36">
-        <v>0.008930269467229628</v>
+        <v>0.03168153671022857</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N36">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O36">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P36">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q36">
-        <v>35.01843953828467</v>
+        <v>1648.139479946357</v>
       </c>
       <c r="R36">
-        <v>315.165955844562</v>
+        <v>14833.25531951722</v>
       </c>
       <c r="S36">
-        <v>0.0001838559013208799</v>
+        <v>0.006963466601649972</v>
       </c>
       <c r="T36">
-        <v>0.0002094904107326409</v>
+        <v>0.008047901669372005</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.380743666666667</v>
+        <v>9.012525666666667</v>
       </c>
       <c r="H37">
-        <v>7.142231000000001</v>
+        <v>27.037577</v>
       </c>
       <c r="I37">
-        <v>0.008567234049196992</v>
+        <v>0.03002341130388915</v>
       </c>
       <c r="J37">
-        <v>0.008930269467229628</v>
+        <v>0.03168153671022857</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N37">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O37">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P37">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q37">
-        <v>395.9521893755085</v>
+        <v>1454.219020032542</v>
       </c>
       <c r="R37">
-        <v>3563.569704379576</v>
+        <v>13087.97118029288</v>
       </c>
       <c r="S37">
-        <v>0.002078851816855565</v>
+        <v>0.006144143563510989</v>
       </c>
       <c r="T37">
-        <v>0.002368700258390405</v>
+        <v>0.007100983758567168</v>
       </c>
     </row>
   </sheetData>
